--- a/data/pca/factorExposure/factorExposure_2014-10-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.0002856639251872181</v>
+        <v>0.01493854334010441</v>
       </c>
       <c r="C2">
-        <v>0.1013485746433875</v>
+        <v>0.06877750730005927</v>
       </c>
       <c r="D2">
-        <v>-0.008950331665840399</v>
+        <v>-0.02827371911920979</v>
       </c>
       <c r="E2">
-        <v>-0.2201379936783554</v>
+        <v>-0.0707576492055588</v>
       </c>
       <c r="F2">
-        <v>0.1095856393329107</v>
+        <v>-0.1461541859320382</v>
       </c>
       <c r="G2">
-        <v>0.05918685116919774</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.002465630329265903</v>
+      </c>
+      <c r="H2">
+        <v>0.05186323506037183</v>
+      </c>
+      <c r="I2">
+        <v>0.006234821127355928</v>
+      </c>
+      <c r="J2">
+        <v>0.1833185513036877</v>
+      </c>
+      <c r="K2">
+        <v>0.0413761734889187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01567987778190303</v>
+        <v>0.01713700206704008</v>
       </c>
       <c r="C4">
-        <v>0.1705292977197355</v>
+        <v>0.1451862297668082</v>
       </c>
       <c r="D4">
-        <v>0.02874749697460718</v>
+        <v>-0.06640934174919724</v>
       </c>
       <c r="E4">
-        <v>-0.1078273311118894</v>
+        <v>0.03119423151769409</v>
       </c>
       <c r="F4">
-        <v>-0.05024419432263144</v>
+        <v>-0.07599246721965884</v>
       </c>
       <c r="G4">
-        <v>0.03004112882019263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01258640279240051</v>
+      </c>
+      <c r="H4">
+        <v>0.1013197018308888</v>
+      </c>
+      <c r="I4">
+        <v>0.01387853810053173</v>
+      </c>
+      <c r="J4">
+        <v>0.1827034838500926</v>
+      </c>
+      <c r="K4">
+        <v>-0.0780524030199695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.0280885298894392</v>
+        <v>0.03968411218528622</v>
       </c>
       <c r="C6">
-        <v>0.08253356552482013</v>
+        <v>0.08736046310621404</v>
       </c>
       <c r="D6">
-        <v>0.0513128732404885</v>
+        <v>-0.02901084278857626</v>
       </c>
       <c r="E6">
-        <v>-0.06557027512024655</v>
+        <v>-0.0402756852297419</v>
       </c>
       <c r="F6">
-        <v>0.008772778608648894</v>
+        <v>-0.0288278312229437</v>
       </c>
       <c r="G6">
-        <v>-0.01485392543327114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0478179177584118</v>
+      </c>
+      <c r="H6">
+        <v>0.02840379291594253</v>
+      </c>
+      <c r="I6">
+        <v>-0.07887027864096896</v>
+      </c>
+      <c r="J6">
+        <v>0.04808502055288829</v>
+      </c>
+      <c r="K6">
+        <v>0.06385626675534173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.002585894470195061</v>
+        <v>0.01569899611517632</v>
       </c>
       <c r="C7">
-        <v>0.06236080834792693</v>
+        <v>0.07351767501040316</v>
       </c>
       <c r="D7">
-        <v>0.03016138104111173</v>
+        <v>-0.02793603131204406</v>
       </c>
       <c r="E7">
-        <v>-0.04763511837317246</v>
+        <v>0.01955628183287592</v>
       </c>
       <c r="F7">
-        <v>-0.03846373393526507</v>
+        <v>-0.002839278211578604</v>
       </c>
       <c r="G7">
-        <v>-0.00376957621686553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.04621644374936452</v>
+      </c>
+      <c r="H7">
+        <v>0.099002776794296</v>
+      </c>
+      <c r="I7">
+        <v>-0.01046837718484013</v>
+      </c>
+      <c r="J7">
+        <v>0.04689075504153482</v>
+      </c>
+      <c r="K7">
+        <v>-0.01401208147285559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.006127643451973621</v>
+        <v>-0.0002714109264150941</v>
       </c>
       <c r="C8">
-        <v>0.06928407073309027</v>
+        <v>0.0624562424278149</v>
       </c>
       <c r="D8">
-        <v>0.02605360182576399</v>
+        <v>-0.04362894498725908</v>
       </c>
       <c r="E8">
-        <v>-0.1000538850811545</v>
+        <v>-0.008959576768404538</v>
       </c>
       <c r="F8">
-        <v>-0.01393462797445571</v>
+        <v>-0.06535280824652892</v>
       </c>
       <c r="G8">
-        <v>0.03185521361950815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.009009910897967058</v>
+      </c>
+      <c r="H8">
+        <v>0.05650401331055998</v>
+      </c>
+      <c r="I8">
+        <v>-0.004840312243835011</v>
+      </c>
+      <c r="J8">
+        <v>0.008623634614991275</v>
+      </c>
+      <c r="K8">
+        <v>-0.007843283176448949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01021593486024789</v>
+        <v>0.01308993822512241</v>
       </c>
       <c r="C9">
-        <v>0.1329850259041681</v>
+        <v>0.1077536086967961</v>
       </c>
       <c r="D9">
-        <v>0.03735905345326804</v>
+        <v>-0.04480289013697762</v>
       </c>
       <c r="E9">
-        <v>-0.05326581216535484</v>
+        <v>0.003907111815945981</v>
       </c>
       <c r="F9">
-        <v>-0.02460671036894901</v>
+        <v>-0.03251149187466019</v>
       </c>
       <c r="G9">
-        <v>-0.02711589090254756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.002647217531066697</v>
+      </c>
+      <c r="H9">
+        <v>0.09177532865249938</v>
+      </c>
+      <c r="I9">
+        <v>-0.02007286704492216</v>
+      </c>
+      <c r="J9">
+        <v>0.08756487991266713</v>
+      </c>
+      <c r="K9">
+        <v>-0.05435221622423354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2767769933294997</v>
+        <v>0.250285188151739</v>
       </c>
       <c r="C10">
-        <v>-0.08514082727269627</v>
+        <v>-0.09171501086385905</v>
       </c>
       <c r="D10">
-        <v>-0.02375162540275511</v>
+        <v>0.004041515762797021</v>
       </c>
       <c r="E10">
-        <v>0.02592093303525771</v>
+        <v>-0.01104288829698854</v>
       </c>
       <c r="F10">
-        <v>-0.01907879202205136</v>
+        <v>0.006553444589619007</v>
       </c>
       <c r="G10">
-        <v>-0.02240134012990769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02067601502983422</v>
+      </c>
+      <c r="H10">
+        <v>0.0405615814433543</v>
+      </c>
+      <c r="I10">
+        <v>0.1713624095848222</v>
+      </c>
+      <c r="J10">
+        <v>-0.06192875834944084</v>
+      </c>
+      <c r="K10">
+        <v>-0.09035675579775568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.01047113851222</v>
+        <v>0.01677316932693849</v>
       </c>
       <c r="C11">
-        <v>0.06572239703138591</v>
+        <v>0.08262818025972393</v>
       </c>
       <c r="D11">
-        <v>0.02408225108725766</v>
+        <v>-0.03779261101223402</v>
       </c>
       <c r="E11">
-        <v>0.001954681963201884</v>
+        <v>0.009771114846911406</v>
       </c>
       <c r="F11">
-        <v>-0.03942462197046167</v>
+        <v>0.008718681947461306</v>
       </c>
       <c r="G11">
-        <v>-0.04240983117183818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01415075976853061</v>
+      </c>
+      <c r="H11">
+        <v>0.03429045934965107</v>
+      </c>
+      <c r="I11">
+        <v>-0.02110560176560464</v>
+      </c>
+      <c r="J11">
+        <v>-0.01867332858445305</v>
+      </c>
+      <c r="K11">
+        <v>-0.02262501452394134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.008375748571955192</v>
+        <v>0.01642842397164878</v>
       </c>
       <c r="C12">
-        <v>0.05540470232586103</v>
+        <v>0.05918403403380706</v>
       </c>
       <c r="D12">
-        <v>0.02817944767725163</v>
+        <v>-0.02213734773108071</v>
       </c>
       <c r="E12">
-        <v>0.002435939333805246</v>
+        <v>-0.0157242658647452</v>
       </c>
       <c r="F12">
-        <v>-0.009297323156599284</v>
+        <v>0.01357455330648082</v>
       </c>
       <c r="G12">
-        <v>-0.07373327657675134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03108346324880717</v>
+      </c>
+      <c r="H12">
+        <v>0.0307341130914804</v>
+      </c>
+      <c r="I12">
+        <v>-0.01672852156534072</v>
+      </c>
+      <c r="J12">
+        <v>-0.00640728112825046</v>
+      </c>
+      <c r="K12">
+        <v>-0.02194007916360793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0202793921898086</v>
+        <v>0.00669771851562181</v>
       </c>
       <c r="C13">
-        <v>0.1248913545177855</v>
+        <v>0.1206873784412364</v>
       </c>
       <c r="D13">
-        <v>0.05429909321190021</v>
+        <v>-0.04392295012309013</v>
       </c>
       <c r="E13">
-        <v>-0.06747820735052197</v>
+        <v>-0.1254630851244568</v>
       </c>
       <c r="F13">
-        <v>-0.03558849155518512</v>
+        <v>-0.0949739307472801</v>
       </c>
       <c r="G13">
-        <v>-0.1794029465344278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1259260393105314</v>
+      </c>
+      <c r="H13">
+        <v>0.1279617906600495</v>
+      </c>
+      <c r="I13">
+        <v>0.2005304521588019</v>
+      </c>
+      <c r="J13">
+        <v>-0.2114593571930366</v>
+      </c>
+      <c r="K13">
+        <v>0.121797937531664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01006008224210625</v>
+        <v>0.01859464516221387</v>
       </c>
       <c r="C14">
-        <v>0.06510945542894374</v>
+        <v>0.07439280455915544</v>
       </c>
       <c r="D14">
-        <v>0.02842149918067373</v>
+        <v>-0.05029552627569157</v>
       </c>
       <c r="E14">
-        <v>-0.04873025480150621</v>
+        <v>-0.04305372143696769</v>
       </c>
       <c r="F14">
-        <v>0.0004418335498939837</v>
+        <v>0.002029505043606906</v>
       </c>
       <c r="G14">
-        <v>-0.06692122253330189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.08574795119704688</v>
+      </c>
+      <c r="H14">
+        <v>0.2059141748969273</v>
+      </c>
+      <c r="I14">
+        <v>-0.03918025514122487</v>
+      </c>
+      <c r="J14">
+        <v>-0.1166645315032649</v>
+      </c>
+      <c r="K14">
+        <v>0.03718017871173833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.005810888366583659</v>
+        <v>0.00121777958012959</v>
       </c>
       <c r="C15">
-        <v>0.09950561147379351</v>
+        <v>0.08047329577978389</v>
       </c>
       <c r="D15">
-        <v>0.04050565481975021</v>
+        <v>-0.03605096235279934</v>
       </c>
       <c r="E15">
-        <v>-0.07725219126579247</v>
+        <v>0.0001540303340028157</v>
       </c>
       <c r="F15">
-        <v>-0.02320066605644577</v>
+        <v>-0.02635614349879618</v>
       </c>
       <c r="G15">
-        <v>-0.02559474531701747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03468609837214372</v>
+      </c>
+      <c r="H15">
+        <v>0.08784169634587248</v>
+      </c>
+      <c r="I15">
+        <v>-0.02513654042956475</v>
+      </c>
+      <c r="J15">
+        <v>-0.05324499262939734</v>
+      </c>
+      <c r="K15">
+        <v>-0.02283782942109143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01315952857684155</v>
+        <v>0.015806501314847</v>
       </c>
       <c r="C16">
-        <v>0.06143692809484212</v>
+        <v>0.06343286357825637</v>
       </c>
       <c r="D16">
-        <v>0.01624138282266857</v>
+        <v>-0.02635263238229703</v>
       </c>
       <c r="E16">
-        <v>0.002967026519838656</v>
+        <v>0.003888492612498982</v>
       </c>
       <c r="F16">
-        <v>-0.01496587548220008</v>
+        <v>0.005990698697605394</v>
       </c>
       <c r="G16">
-        <v>-0.03631902005883678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01159610374198254</v>
+      </c>
+      <c r="H16">
+        <v>0.02585395318632409</v>
+      </c>
+      <c r="I16">
+        <v>-0.01808636208106551</v>
+      </c>
+      <c r="J16">
+        <v>-0.002901006768155161</v>
+      </c>
+      <c r="K16">
+        <v>-0.01564527291133165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01296234814513537</v>
+        <v>0.0134661003746736</v>
       </c>
       <c r="C20">
-        <v>0.08926116430451837</v>
+        <v>0.08611091933796465</v>
       </c>
       <c r="D20">
-        <v>0.01804322353380319</v>
+        <v>-0.02606251451528483</v>
       </c>
       <c r="E20">
-        <v>-0.02259938960166386</v>
+        <v>0.02765633966364098</v>
       </c>
       <c r="F20">
-        <v>-0.07232445634525983</v>
+        <v>-5.988408800168357e-05</v>
       </c>
       <c r="G20">
-        <v>-0.07755220189584956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.044276020657268</v>
+      </c>
+      <c r="H20">
+        <v>0.07210412487372447</v>
+      </c>
+      <c r="I20">
+        <v>-0.02146883706372685</v>
+      </c>
+      <c r="J20">
+        <v>0.01853636243006158</v>
+      </c>
+      <c r="K20">
+        <v>-0.02266780388801758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0005599843405068859</v>
+        <v>0.01371249638843902</v>
       </c>
       <c r="C21">
-        <v>0.0892985715974372</v>
+        <v>0.07470441053065004</v>
       </c>
       <c r="D21">
-        <v>-0.02804834070546443</v>
+        <v>-0.02442589899633488</v>
       </c>
       <c r="E21">
-        <v>-0.05542247881855687</v>
+        <v>-0.08326624305438615</v>
       </c>
       <c r="F21">
-        <v>0.03038896829101507</v>
+        <v>-0.01167091566119567</v>
       </c>
       <c r="G21">
-        <v>-0.05571873536825617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02503036288998709</v>
+      </c>
+      <c r="H21">
+        <v>0.1451015403082442</v>
+      </c>
+      <c r="I21">
+        <v>0.02779699605867113</v>
+      </c>
+      <c r="J21">
+        <v>-0.04647132815349638</v>
+      </c>
+      <c r="K21">
+        <v>0.009372341151592875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04215669113517614</v>
+        <v>0.005893985832847329</v>
       </c>
       <c r="C22">
-        <v>0.1824508758762279</v>
+        <v>0.1698146294473365</v>
       </c>
       <c r="D22">
-        <v>-0.09192898492589144</v>
+        <v>-0.01716058550185035</v>
       </c>
       <c r="E22">
-        <v>-0.294843124119451</v>
+        <v>0.03820335391300676</v>
       </c>
       <c r="F22">
-        <v>-0.09317216659406703</v>
+        <v>-0.5261572427554247</v>
       </c>
       <c r="G22">
-        <v>0.2195189921868819</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.02342074881547948</v>
+      </c>
+      <c r="H22">
+        <v>-0.3046645687366931</v>
+      </c>
+      <c r="I22">
+        <v>0.03041432712749102</v>
+      </c>
+      <c r="J22">
+        <v>-0.2156644884778426</v>
+      </c>
+      <c r="K22">
+        <v>-0.05463417492090653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04193415430999943</v>
+        <v>0.01071144706424003</v>
       </c>
       <c r="C23">
-        <v>0.1831275708653153</v>
+        <v>0.1736851072925877</v>
       </c>
       <c r="D23">
-        <v>-0.09159938369760842</v>
+        <v>-0.01638840049158633</v>
       </c>
       <c r="E23">
-        <v>-0.2905546791594149</v>
+        <v>0.03607751202158142</v>
       </c>
       <c r="F23">
-        <v>-0.09233291811279773</v>
+        <v>-0.5080971104158796</v>
       </c>
       <c r="G23">
-        <v>0.2188015681806501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.01989595096932221</v>
+      </c>
+      <c r="H23">
+        <v>-0.2836180572464325</v>
+      </c>
+      <c r="I23">
+        <v>0.0225851752131579</v>
+      </c>
+      <c r="J23">
+        <v>-0.201979515211105</v>
+      </c>
+      <c r="K23">
+        <v>-0.05818803542158786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005720460920662425</v>
+        <v>0.01659352078478743</v>
       </c>
       <c r="C24">
-        <v>0.06643843231697681</v>
+        <v>0.06975825732099405</v>
       </c>
       <c r="D24">
-        <v>0.03971233956637082</v>
+        <v>-0.03927161296077266</v>
       </c>
       <c r="E24">
-        <v>0.0002274469561435842</v>
+        <v>0.00716630171345476</v>
       </c>
       <c r="F24">
-        <v>-0.02716346623946672</v>
+        <v>0.008331787501571097</v>
       </c>
       <c r="G24">
-        <v>-0.05567438276512315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02568000795011774</v>
+      </c>
+      <c r="H24">
+        <v>0.04198274806005456</v>
+      </c>
+      <c r="I24">
+        <v>-0.02014872910256374</v>
+      </c>
+      <c r="J24">
+        <v>-0.01072002609355491</v>
+      </c>
+      <c r="K24">
+        <v>-0.02639145309029651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01097304313862606</v>
+        <v>0.02097009946546422</v>
       </c>
       <c r="C25">
-        <v>0.0639658097993321</v>
+        <v>0.06935153302758104</v>
       </c>
       <c r="D25">
-        <v>0.01452516168609449</v>
+        <v>-0.02782805823911363</v>
       </c>
       <c r="E25">
-        <v>0.007039863149377271</v>
+        <v>0.009413724807406754</v>
       </c>
       <c r="F25">
-        <v>-0.03318601258331232</v>
+        <v>0.005277611567306211</v>
       </c>
       <c r="G25">
-        <v>-0.05349568587287828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02259363945214276</v>
+      </c>
+      <c r="H25">
+        <v>0.03639976340335044</v>
+      </c>
+      <c r="I25">
+        <v>-0.007078776535763778</v>
+      </c>
+      <c r="J25">
+        <v>-0.02214173727017257</v>
+      </c>
+      <c r="K25">
+        <v>-0.02510346969259581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.005579593836758612</v>
+        <v>0.02339432732730115</v>
       </c>
       <c r="C26">
-        <v>0.06044930959395703</v>
+        <v>0.05972353405882796</v>
       </c>
       <c r="D26">
-        <v>0.05688007582014312</v>
+        <v>-0.06439207557451229</v>
       </c>
       <c r="E26">
-        <v>-0.02385399831354112</v>
+        <v>0.005863845494267899</v>
       </c>
       <c r="F26">
-        <v>0.00473797365132101</v>
+        <v>0.0176601617194222</v>
       </c>
       <c r="G26">
-        <v>-0.04362852616671544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0003479785286807949</v>
+      </c>
+      <c r="H26">
+        <v>0.103083290648398</v>
+      </c>
+      <c r="I26">
+        <v>-0.04998381443282178</v>
+      </c>
+      <c r="J26">
+        <v>0.1114588477987448</v>
+      </c>
+      <c r="K26">
+        <v>-0.06088609761444969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3768026898796268</v>
+        <v>0.3205828221092252</v>
       </c>
       <c r="C28">
-        <v>-0.1080473184121058</v>
+        <v>-0.10827667941853</v>
       </c>
       <c r="D28">
-        <v>-0.03084700234279069</v>
+        <v>0.03377898570898961</v>
       </c>
       <c r="E28">
-        <v>0.1072815999288591</v>
+        <v>-0.01536647318955258</v>
       </c>
       <c r="F28">
-        <v>0.03671112532014444</v>
+        <v>-0.04456408907845539</v>
       </c>
       <c r="G28">
-        <v>0.001334434937272173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1139484681377401</v>
+      </c>
+      <c r="H28">
+        <v>0.07564701951301078</v>
+      </c>
+      <c r="I28">
+        <v>0.2271127173508915</v>
+      </c>
+      <c r="J28">
+        <v>0.007557796031633079</v>
+      </c>
+      <c r="K28">
+        <v>-0.008820677258587505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.008147083304038703</v>
+        <v>0.01290557077583405</v>
       </c>
       <c r="C29">
-        <v>0.0718050831356413</v>
+        <v>0.07988851483885281</v>
       </c>
       <c r="D29">
-        <v>0.04399114889269387</v>
+        <v>-0.05535912865761182</v>
       </c>
       <c r="E29">
-        <v>-0.05396172433180432</v>
+        <v>-0.05175365838639562</v>
       </c>
       <c r="F29">
-        <v>-0.01431236723538681</v>
+        <v>-0.004467481803574707</v>
       </c>
       <c r="G29">
-        <v>-0.09476479497928637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.127406483433451</v>
+      </c>
+      <c r="H29">
+        <v>0.2892115163040094</v>
+      </c>
+      <c r="I29">
+        <v>-0.03604230925543589</v>
+      </c>
+      <c r="J29">
+        <v>-0.1752319830244704</v>
+      </c>
+      <c r="K29">
+        <v>0.07066463124626031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.03152866477185221</v>
+        <v>0.02929586926408174</v>
       </c>
       <c r="C30">
-        <v>0.1717834608578754</v>
+        <v>0.1430018234412326</v>
       </c>
       <c r="D30">
-        <v>0.05511584027691569</v>
+        <v>-0.05697990512115319</v>
       </c>
       <c r="E30">
-        <v>-0.06294907483770286</v>
+        <v>0.006904559182742568</v>
       </c>
       <c r="F30">
-        <v>-0.03935891948374969</v>
+        <v>-0.06755555473799624</v>
       </c>
       <c r="G30">
-        <v>0.01074780706393939</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01112607883606211</v>
+      </c>
+      <c r="H30">
+        <v>0.02481697076400673</v>
+      </c>
+      <c r="I30">
+        <v>-0.0488759683070901</v>
+      </c>
+      <c r="J30">
+        <v>0.09062546767497179</v>
+      </c>
+      <c r="K30">
+        <v>-0.008207867461326276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.006005335127750491</v>
+        <v>0.01149107108825097</v>
       </c>
       <c r="C31">
-        <v>0.0660419348888089</v>
+        <v>0.08336561950286286</v>
       </c>
       <c r="D31">
-        <v>0.03902700472660887</v>
+        <v>-0.04248022331666099</v>
       </c>
       <c r="E31">
-        <v>0.01489264908816426</v>
+        <v>-0.001656653354765994</v>
       </c>
       <c r="F31">
-        <v>0.007639751725812493</v>
+        <v>0.006689383288613447</v>
       </c>
       <c r="G31">
-        <v>-0.01707046651166426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02928258793833454</v>
+      </c>
+      <c r="H31">
+        <v>0.03385594027754468</v>
+      </c>
+      <c r="I31">
+        <v>-0.01598195785386106</v>
+      </c>
+      <c r="J31">
+        <v>-0.03509800986326268</v>
+      </c>
+      <c r="K31">
+        <v>-0.01527811347513452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.02313791918656098</v>
+        <v>0.02299798061057041</v>
       </c>
       <c r="C32">
-        <v>0.08033741261467901</v>
+        <v>0.05534115997981479</v>
       </c>
       <c r="D32">
-        <v>-0.0112635814179768</v>
+        <v>-0.01820286087359404</v>
       </c>
       <c r="E32">
-        <v>-0.1681076863179606</v>
+        <v>-0.07577884943534711</v>
       </c>
       <c r="F32">
-        <v>0.01230630447876683</v>
+        <v>-0.09629767575457358</v>
       </c>
       <c r="G32">
-        <v>-0.06118648500752025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0799264488369729</v>
+      </c>
+      <c r="H32">
+        <v>0.169426267388966</v>
+      </c>
+      <c r="I32">
+        <v>0.2302145987821611</v>
+      </c>
+      <c r="J32">
+        <v>-0.02152569766024975</v>
+      </c>
+      <c r="K32">
+        <v>0.1504023146428707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01292895189226032</v>
+        <v>0.01603530559903489</v>
       </c>
       <c r="C33">
-        <v>0.09263926593820904</v>
+        <v>0.1065557017440669</v>
       </c>
       <c r="D33">
-        <v>0.05806860794613571</v>
+        <v>-0.04793110116712101</v>
       </c>
       <c r="E33">
-        <v>-0.0225968448493764</v>
+        <v>0.007981531682551406</v>
       </c>
       <c r="F33">
-        <v>-0.005961165738638583</v>
+        <v>-0.01457286573730735</v>
       </c>
       <c r="G33">
-        <v>-0.03379043088613204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02673370992795462</v>
+      </c>
+      <c r="H33">
+        <v>0.05856179945023857</v>
+      </c>
+      <c r="I33">
+        <v>0.01160852941167586</v>
+      </c>
+      <c r="J33">
+        <v>0.0009660141512397919</v>
+      </c>
+      <c r="K33">
+        <v>-0.02663756743234715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.006337957687336807</v>
+        <v>0.0167815942790241</v>
       </c>
       <c r="C34">
-        <v>0.04950773432989825</v>
+        <v>0.05062069471506021</v>
       </c>
       <c r="D34">
-        <v>0.02187392880579905</v>
+        <v>-0.02104796946174078</v>
       </c>
       <c r="E34">
-        <v>-0.008097040564872772</v>
+        <v>-0.000148348103265584</v>
       </c>
       <c r="F34">
-        <v>-0.00740638759959892</v>
+        <v>0.007719195490515117</v>
       </c>
       <c r="G34">
-        <v>-0.04307652717559569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01867991666833261</v>
+      </c>
+      <c r="H34">
+        <v>0.0102806579879459</v>
+      </c>
+      <c r="I34">
+        <v>-0.0116104117723306</v>
+      </c>
+      <c r="J34">
+        <v>-0.007647174167211591</v>
+      </c>
+      <c r="K34">
+        <v>-0.02721998376931226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.002116000214994352</v>
+        <v>0.008798327519042354</v>
       </c>
       <c r="C35">
-        <v>0.01833534564091686</v>
+        <v>0.04135711792695482</v>
       </c>
       <c r="D35">
-        <v>0.006686512618118847</v>
+        <v>-0.02217146966103699</v>
       </c>
       <c r="E35">
-        <v>-0.01503597239499323</v>
+        <v>-0.01257087457046343</v>
       </c>
       <c r="F35">
-        <v>-0.008096305503032426</v>
+        <v>-0.004974751263475123</v>
       </c>
       <c r="G35">
-        <v>-0.02546316585805874</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05104250359013671</v>
+      </c>
+      <c r="H35">
+        <v>0.1456895250357231</v>
+      </c>
+      <c r="I35">
+        <v>-0.003989374172279138</v>
+      </c>
+      <c r="J35">
+        <v>-0.1359947364511711</v>
+      </c>
+      <c r="K35">
+        <v>0.002134343627259002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.006267006130405085</v>
+        <v>0.01543533580731529</v>
       </c>
       <c r="C36">
-        <v>0.05365224656096476</v>
+        <v>0.04929938118387577</v>
       </c>
       <c r="D36">
-        <v>0.05128270679623217</v>
+        <v>-0.04898178955538064</v>
       </c>
       <c r="E36">
-        <v>-0.01415998485928022</v>
+        <v>-0.001861715372235769</v>
       </c>
       <c r="F36">
-        <v>0.002581668832297229</v>
+        <v>-0.00251917831784419</v>
       </c>
       <c r="G36">
-        <v>-0.02170534652346322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.001078125587262207</v>
+      </c>
+      <c r="H36">
+        <v>0.07377285849655187</v>
+      </c>
+      <c r="I36">
+        <v>-0.01835869632315744</v>
+      </c>
+      <c r="J36">
+        <v>0.03879636542148882</v>
+      </c>
+      <c r="K36">
+        <v>-0.03084098736025531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02987282977566331</v>
+        <v>0.01253596173701679</v>
       </c>
       <c r="C38">
-        <v>0.05945367100660719</v>
+        <v>0.06371359765419071</v>
       </c>
       <c r="D38">
-        <v>0.04230211231816949</v>
+        <v>-0.04151905412738548</v>
       </c>
       <c r="E38">
-        <v>-0.0007317503494698802</v>
+        <v>0.03018170711160466</v>
       </c>
       <c r="F38">
-        <v>-0.009517482784976366</v>
+        <v>-0.01244806110427865</v>
       </c>
       <c r="G38">
-        <v>-0.007913202511788658</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.00277222076616713</v>
+      </c>
+      <c r="H38">
+        <v>0.08376679036495593</v>
+      </c>
+      <c r="I38">
+        <v>0.05486769939752878</v>
+      </c>
+      <c r="J38">
+        <v>-0.03577824544906508</v>
+      </c>
+      <c r="K38">
+        <v>-0.01743459775769758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.003922813829266902</v>
+        <v>0.01638585908551251</v>
       </c>
       <c r="C39">
-        <v>0.1295846633063602</v>
+        <v>0.1260572947681217</v>
       </c>
       <c r="D39">
-        <v>0.03775295064560286</v>
+        <v>-0.05416031996395623</v>
       </c>
       <c r="E39">
-        <v>-0.0303620615322274</v>
+        <v>-0.00192855384990128</v>
       </c>
       <c r="F39">
-        <v>-0.04220007555540687</v>
+        <v>-0.005528610438809142</v>
       </c>
       <c r="G39">
-        <v>-0.07169250899989452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04571479439630294</v>
+      </c>
+      <c r="H39">
+        <v>0.04869517674790375</v>
+      </c>
+      <c r="I39">
+        <v>-0.07331561092727854</v>
+      </c>
+      <c r="J39">
+        <v>0.01337465169964825</v>
+      </c>
+      <c r="K39">
+        <v>-0.00866947533789072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.009475805933699587</v>
+        <v>0.01387942237930095</v>
       </c>
       <c r="C40">
-        <v>0.02445749233579804</v>
+        <v>0.06136874107834962</v>
       </c>
       <c r="D40">
-        <v>0.02512800021248587</v>
+        <v>-0.03854069450512454</v>
       </c>
       <c r="E40">
-        <v>-0.1417303597432054</v>
+        <v>-0.02798849466688324</v>
       </c>
       <c r="F40">
-        <v>-0.04253852015314047</v>
+        <v>-0.04333247012367388</v>
       </c>
       <c r="G40">
-        <v>-0.06550979796714065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1471143498322673</v>
+      </c>
+      <c r="H40">
+        <v>0.03183380450135793</v>
+      </c>
+      <c r="I40">
+        <v>0.02021692233186166</v>
+      </c>
+      <c r="J40">
+        <v>-0.2415058890724811</v>
+      </c>
+      <c r="K40">
+        <v>-0.1101876450116555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.008230227591197148</v>
+        <v>0.02026338795520993</v>
       </c>
       <c r="C41">
-        <v>0.01712041679791489</v>
+        <v>0.04630952077572732</v>
       </c>
       <c r="D41">
-        <v>0.004308335214226</v>
+        <v>-0.01748183509730373</v>
       </c>
       <c r="E41">
-        <v>0.02582939518120871</v>
+        <v>0.007921162126434629</v>
       </c>
       <c r="F41">
-        <v>0.01932619878993197</v>
+        <v>0.02444445399128062</v>
       </c>
       <c r="G41">
-        <v>0.02976472147570758</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.007576725506053227</v>
+      </c>
+      <c r="H41">
+        <v>0.02729752632298439</v>
+      </c>
+      <c r="I41">
+        <v>0.03361167640658511</v>
+      </c>
+      <c r="J41">
+        <v>-0.05213157324949316</v>
+      </c>
+      <c r="K41">
+        <v>-0.007971169190933353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.002106329769111488</v>
+        <v>0.01688010797125803</v>
       </c>
       <c r="C43">
-        <v>0.0150663399644224</v>
+        <v>0.04297460732553587</v>
       </c>
       <c r="D43">
-        <v>0.008951452003288984</v>
+        <v>-0.030081669268358</v>
       </c>
       <c r="E43">
-        <v>0.003036437954293935</v>
+        <v>0.01581268180774383</v>
       </c>
       <c r="F43">
-        <v>-0.01370655503840475</v>
+        <v>0.006869809027400958</v>
       </c>
       <c r="G43">
-        <v>0.00742130473010913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0001920336644041171</v>
+      </c>
+      <c r="H43">
+        <v>0.04562422231024366</v>
+      </c>
+      <c r="I43">
+        <v>0.005051307804937902</v>
+      </c>
+      <c r="J43">
+        <v>-0.04401333557311998</v>
+      </c>
+      <c r="K43">
+        <v>0.002064380843529392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02469686268559236</v>
+        <v>0.0124942326874936</v>
       </c>
       <c r="C44">
-        <v>0.09707634237475628</v>
+        <v>0.09368605725085205</v>
       </c>
       <c r="D44">
-        <v>0.02246697183125815</v>
+        <v>-0.0564461677150401</v>
       </c>
       <c r="E44">
-        <v>-0.07196542100775435</v>
+        <v>0.0163947439035736</v>
       </c>
       <c r="F44">
-        <v>-0.05219077289609991</v>
+        <v>-0.06853442578471562</v>
       </c>
       <c r="G44">
-        <v>-0.01329414899817586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04434792752305006</v>
+      </c>
+      <c r="H44">
+        <v>0.04975231596780109</v>
+      </c>
+      <c r="I44">
+        <v>-0.05546439250783136</v>
+      </c>
+      <c r="J44">
+        <v>0.06440112529297531</v>
+      </c>
+      <c r="K44">
+        <v>0.007906515586657564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006555602802695222</v>
+        <v>0.003068686323121137</v>
       </c>
       <c r="C46">
-        <v>0.06911995968716189</v>
+        <v>0.06415661288015062</v>
       </c>
       <c r="D46">
-        <v>0.04364363917860307</v>
+        <v>-0.03129968999836996</v>
       </c>
       <c r="E46">
-        <v>-0.03907563748419853</v>
+        <v>-0.008183421796264998</v>
       </c>
       <c r="F46">
-        <v>-0.01854117361033502</v>
+        <v>0.01003204451536582</v>
       </c>
       <c r="G46">
-        <v>-0.05791564753182529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04191756375386711</v>
+      </c>
+      <c r="H46">
+        <v>0.1037956535345853</v>
+      </c>
+      <c r="I46">
+        <v>-0.005716894923652429</v>
+      </c>
+      <c r="J46">
+        <v>-0.07834623510319927</v>
+      </c>
+      <c r="K46">
+        <v>0.01047722052133833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.006386469065267496</v>
+        <v>0.02194243835312893</v>
       </c>
       <c r="C47">
-        <v>0.09257384665748809</v>
+        <v>0.08570705410831571</v>
       </c>
       <c r="D47">
-        <v>0.04578166583054352</v>
+        <v>-0.046607588337938</v>
       </c>
       <c r="E47">
-        <v>0.025420577691693</v>
+        <v>-0.007553696219079464</v>
       </c>
       <c r="F47">
-        <v>0.02541237809784166</v>
+        <v>0.02384603260624588</v>
       </c>
       <c r="G47">
-        <v>-0.05937456415908313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007220832519084239</v>
+      </c>
+      <c r="H47">
+        <v>0.06855804184687166</v>
+      </c>
+      <c r="I47">
+        <v>0.01933630463539233</v>
+      </c>
+      <c r="J47">
+        <v>-0.03380790030123523</v>
+      </c>
+      <c r="K47">
+        <v>-0.01026336668821142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01120782162651031</v>
+        <v>0.0212588548125407</v>
       </c>
       <c r="C48">
-        <v>0.05138956631244219</v>
+        <v>0.05236796331297287</v>
       </c>
       <c r="D48">
-        <v>0.06036381471592245</v>
+        <v>-0.05648069727730923</v>
       </c>
       <c r="E48">
-        <v>-0.01253867339044316</v>
+        <v>0.006714066408737319</v>
       </c>
       <c r="F48">
-        <v>-0.004792687482793563</v>
+        <v>0.003450103693970246</v>
       </c>
       <c r="G48">
-        <v>-0.02639844582237777</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002620677922464554</v>
+      </c>
+      <c r="H48">
+        <v>0.09939803772958179</v>
+      </c>
+      <c r="I48">
+        <v>-0.03666132186401255</v>
+      </c>
+      <c r="J48">
+        <v>0.09052611172769701</v>
+      </c>
+      <c r="K48">
+        <v>-0.04109482188430433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006019609889489516</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02436930935172828</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0008224716969928189</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01329744380983114</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03087850178247235</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03065982688043857</v>
+      </c>
+      <c r="H49">
+        <v>-0.02442061150997889</v>
+      </c>
+      <c r="I49">
+        <v>-0.04469539812882502</v>
+      </c>
+      <c r="J49">
+        <v>0.0274425619769839</v>
+      </c>
+      <c r="K49">
+        <v>-0.04867943300702911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002508217348874604</v>
+        <v>0.01241458896130167</v>
       </c>
       <c r="C50">
-        <v>0.07725883998185731</v>
+        <v>0.08119456487808778</v>
       </c>
       <c r="D50">
-        <v>0.02985214924191226</v>
+        <v>-0.02963189258750224</v>
       </c>
       <c r="E50">
-        <v>-0.003257965667489314</v>
+        <v>0.002194533103845934</v>
       </c>
       <c r="F50">
-        <v>-0.006577061374404157</v>
+        <v>-0.0005287091956708186</v>
       </c>
       <c r="G50">
-        <v>-0.007921917860729181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0126797947571906</v>
+      </c>
+      <c r="H50">
+        <v>0.05710429320240405</v>
+      </c>
+      <c r="I50">
+        <v>0.03521065876904594</v>
+      </c>
+      <c r="J50">
+        <v>-0.02297786857513697</v>
+      </c>
+      <c r="K50">
+        <v>-0.002445287930309967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003390091332689277</v>
+        <v>-0.005716591911276438</v>
       </c>
       <c r="C51">
-        <v>0.07870692486826618</v>
+        <v>0.03892156917154667</v>
       </c>
       <c r="D51">
-        <v>0.004358581352829834</v>
+        <v>-0.02284743317840985</v>
       </c>
       <c r="E51">
-        <v>-0.09041528761098531</v>
+        <v>-0.01047927257858081</v>
       </c>
       <c r="F51">
-        <v>-0.04033672923349911</v>
+        <v>-0.03461793713283276</v>
       </c>
       <c r="G51">
-        <v>-0.01184632619063424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03472020994351854</v>
+      </c>
+      <c r="H51">
+        <v>0.09417290827590549</v>
+      </c>
+      <c r="I51">
+        <v>-0.02324436056610845</v>
+      </c>
+      <c r="J51">
+        <v>0.1190423653609118</v>
+      </c>
+      <c r="K51">
+        <v>-0.002953103394036732</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04089054173527084</v>
+        <v>0.0563133748731303</v>
       </c>
       <c r="C53">
-        <v>0.1361430110474032</v>
+        <v>0.1330598565031345</v>
       </c>
       <c r="D53">
-        <v>0.06925147237556566</v>
+        <v>-0.05744150063996122</v>
       </c>
       <c r="E53">
-        <v>0.1329972203815605</v>
+        <v>-0.002227633137156622</v>
       </c>
       <c r="F53">
-        <v>0.02113369453990776</v>
+        <v>0.07256599106307615</v>
       </c>
       <c r="G53">
-        <v>0.0151697884348569</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08381199894284293</v>
+      </c>
+      <c r="H53">
+        <v>-0.02315792335889645</v>
+      </c>
+      <c r="I53">
+        <v>0.04748646492209294</v>
+      </c>
+      <c r="J53">
+        <v>-0.01278140010011945</v>
+      </c>
+      <c r="K53">
+        <v>-0.02976440256789422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.009550469748257502</v>
+        <v>0.01810273881251649</v>
       </c>
       <c r="C54">
-        <v>0.06720599778592347</v>
+        <v>0.07517801057267873</v>
       </c>
       <c r="D54">
-        <v>0.009535101449470422</v>
+        <v>-0.01195938867880507</v>
       </c>
       <c r="E54">
-        <v>0.007888090849065398</v>
+        <v>-0.001942886180217063</v>
       </c>
       <c r="F54">
-        <v>-0.02170131103340306</v>
+        <v>0.01644602068038109</v>
       </c>
       <c r="G54">
-        <v>-0.03232393652186789</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02533078574278891</v>
+      </c>
+      <c r="H54">
+        <v>0.05778150398754568</v>
+      </c>
+      <c r="I54">
+        <v>-0.0248594683586278</v>
+      </c>
+      <c r="J54">
+        <v>-0.01025683723349989</v>
+      </c>
+      <c r="K54">
+        <v>-0.006286748788545115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02520318726209915</v>
+        <v>0.03199631590811464</v>
       </c>
       <c r="C55">
-        <v>0.09525717138270628</v>
+        <v>0.08961222407181459</v>
       </c>
       <c r="D55">
-        <v>0.06560255891103467</v>
+        <v>-0.05515359906253048</v>
       </c>
       <c r="E55">
-        <v>0.06561290690784749</v>
+        <v>0.004196375648772966</v>
       </c>
       <c r="F55">
-        <v>0.02605848816932751</v>
+        <v>0.05630537622574947</v>
       </c>
       <c r="G55">
-        <v>-0.01583986727039878</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04389253612856287</v>
+      </c>
+      <c r="H55">
+        <v>-0.01359058350519407</v>
+      </c>
+      <c r="I55">
+        <v>-0.008449472740990727</v>
+      </c>
+      <c r="J55">
+        <v>-0.005364005838142233</v>
+      </c>
+      <c r="K55">
+        <v>-0.01756397488019868</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.03047414423727748</v>
+        <v>0.04486914103655015</v>
       </c>
       <c r="C56">
-        <v>0.1708176112240684</v>
+        <v>0.15576603848464</v>
       </c>
       <c r="D56">
-        <v>0.06321249978023752</v>
+        <v>-0.07995217793316209</v>
       </c>
       <c r="E56">
-        <v>0.1431216747019981</v>
+        <v>-0.02318562949115879</v>
       </c>
       <c r="F56">
-        <v>0.07242533135704415</v>
+        <v>0.09947180518583103</v>
       </c>
       <c r="G56">
-        <v>0.03801527060091685</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1564880913110452</v>
+      </c>
+      <c r="H56">
+        <v>-0.03495225171009554</v>
+      </c>
+      <c r="I56">
+        <v>0.03083594991946912</v>
+      </c>
+      <c r="J56">
+        <v>0.02495670812377076</v>
+      </c>
+      <c r="K56">
+        <v>-0.0254283363798896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02501077791551459</v>
+        <v>0.01792134945691599</v>
       </c>
       <c r="C58">
-        <v>0.271349871152529</v>
+        <v>0.1776151640242064</v>
       </c>
       <c r="D58">
-        <v>-0.07197089790020991</v>
+        <v>-0.03709502641944176</v>
       </c>
       <c r="E58">
-        <v>-0.275222677473453</v>
+        <v>0.006890189028660833</v>
       </c>
       <c r="F58">
-        <v>-0.1669231275982803</v>
+        <v>-0.3289438315854486</v>
       </c>
       <c r="G58">
-        <v>0.280899511391533</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.06267416940904587</v>
+      </c>
+      <c r="H58">
+        <v>0.02922141218654813</v>
+      </c>
+      <c r="I58">
+        <v>-0.002685791665635501</v>
+      </c>
+      <c r="J58">
+        <v>0.418140744477733</v>
+      </c>
+      <c r="K58">
+        <v>0.2252646817952169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2799432162728493</v>
+        <v>0.2890876120468917</v>
       </c>
       <c r="C59">
-        <v>-0.006976521998186704</v>
+        <v>-0.04189809909679675</v>
       </c>
       <c r="D59">
-        <v>-0.04533515525861564</v>
+        <v>0.007739360456103891</v>
       </c>
       <c r="E59">
-        <v>-0.04228524819450666</v>
+        <v>-0.02788719629276747</v>
       </c>
       <c r="F59">
-        <v>0.04234253332247441</v>
+        <v>-0.0419974160401439</v>
       </c>
       <c r="G59">
-        <v>-0.02594957771529638</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004844404225757492</v>
+      </c>
+      <c r="H59">
+        <v>-0.01975488507740178</v>
+      </c>
+      <c r="I59">
+        <v>0.02918672600109183</v>
+      </c>
+      <c r="J59">
+        <v>-0.02022965038900338</v>
+      </c>
+      <c r="K59">
+        <v>-0.01948994775976745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1212591232622503</v>
+        <v>0.1488938629450821</v>
       </c>
       <c r="C60">
-        <v>0.1527468294934972</v>
+        <v>0.1584904140157713</v>
       </c>
       <c r="D60">
-        <v>0.06792319671824956</v>
+        <v>-0.04550106799356256</v>
       </c>
       <c r="E60">
-        <v>0.05568879511124805</v>
+        <v>-0.02418237591464606</v>
       </c>
       <c r="F60">
-        <v>-0.04505076253412232</v>
+        <v>0.1207605637963331</v>
       </c>
       <c r="G60">
-        <v>-0.2949305314305631</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.248405488273871</v>
+      </c>
+      <c r="H60">
+        <v>-0.2339979841848532</v>
+      </c>
+      <c r="I60">
+        <v>-0.01699379131475795</v>
+      </c>
+      <c r="J60">
+        <v>0.004725414113585775</v>
+      </c>
+      <c r="K60">
+        <v>0.03410057241195149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.001630438234319903</v>
+        <v>0.0184695006015827</v>
       </c>
       <c r="C61">
-        <v>0.08828967399963303</v>
+        <v>0.09766775831999236</v>
       </c>
       <c r="D61">
-        <v>0.05019115338420223</v>
+        <v>-0.05229661401642532</v>
       </c>
       <c r="E61">
-        <v>0.01365096862016145</v>
+        <v>-0.004348297859876747</v>
       </c>
       <c r="F61">
-        <v>-0.01661947714839025</v>
+        <v>0.03167553761883505</v>
       </c>
       <c r="G61">
-        <v>-0.07619118396431357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02576846428780851</v>
+      </c>
+      <c r="H61">
+        <v>0.06137411403651336</v>
+      </c>
+      <c r="I61">
+        <v>-0.033271148639386</v>
+      </c>
+      <c r="J61">
+        <v>-0.01737938333524418</v>
+      </c>
+      <c r="K61">
+        <v>-0.0342999131663894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002227840643297117</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01225095233809283</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003282128632527636</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.005449853710836436</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01070088757683202</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0135019893647392</v>
+      </c>
+      <c r="H62">
+        <v>0.005708868373362814</v>
+      </c>
+      <c r="I62">
+        <v>0.0009144803429355563</v>
+      </c>
+      <c r="J62">
+        <v>0.004291587249837518</v>
+      </c>
+      <c r="K62">
+        <v>-0.04818732260204873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.003567356388257702</v>
+        <v>0.02523325787773741</v>
       </c>
       <c r="C63">
-        <v>0.06873049983520037</v>
+        <v>0.0710967482686657</v>
       </c>
       <c r="D63">
-        <v>0.03794372780248857</v>
+        <v>-0.06035718816288279</v>
       </c>
       <c r="E63">
-        <v>0.01452749304102275</v>
+        <v>-0.003922320834428833</v>
       </c>
       <c r="F63">
-        <v>-0.02175144573822858</v>
+        <v>0.01787713078353931</v>
       </c>
       <c r="G63">
-        <v>-0.03288513685541203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.007989123257625184</v>
+      </c>
+      <c r="H63">
+        <v>0.06461940206665608</v>
+      </c>
+      <c r="I63">
+        <v>-0.01407092768441942</v>
+      </c>
+      <c r="J63">
+        <v>-0.006675936080249935</v>
+      </c>
+      <c r="K63">
+        <v>-0.05989911229376234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.001642603213058269</v>
+        <v>0.01271638711113321</v>
       </c>
       <c r="C64">
-        <v>0.07706466017962262</v>
+        <v>0.08837651755906659</v>
       </c>
       <c r="D64">
-        <v>0.06547722743773991</v>
+        <v>-0.03425097336407427</v>
       </c>
       <c r="E64">
-        <v>-0.02513859671015026</v>
+        <v>0.03320101608813279</v>
       </c>
       <c r="F64">
-        <v>-0.03001084461892731</v>
+        <v>-0.0340924451371566</v>
       </c>
       <c r="G64">
-        <v>-0.05364648629139723</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06800383135945326</v>
+      </c>
+      <c r="H64">
+        <v>0.03947197976422497</v>
+      </c>
+      <c r="I64">
+        <v>-0.03233494975171775</v>
+      </c>
+      <c r="J64">
+        <v>-0.01674826585120733</v>
+      </c>
+      <c r="K64">
+        <v>-0.08479206108609934</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01428578137723858</v>
+        <v>0.02967398431210971</v>
       </c>
       <c r="C65">
-        <v>0.07744039336045747</v>
+        <v>0.0927520072996105</v>
       </c>
       <c r="D65">
-        <v>0.03132643093615056</v>
+        <v>-0.01916540814843055</v>
       </c>
       <c r="E65">
-        <v>-0.03683179655263531</v>
+        <v>0.02972920605816693</v>
       </c>
       <c r="F65">
-        <v>-0.02635171728054697</v>
+        <v>-0.006556664664342073</v>
       </c>
       <c r="G65">
-        <v>-0.01745404796778368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09886614911031923</v>
+      </c>
+      <c r="H65">
+        <v>-0.004516650378979572</v>
+      </c>
+      <c r="I65">
+        <v>-0.07102603425660554</v>
+      </c>
+      <c r="J65">
+        <v>0.06617576491294375</v>
+      </c>
+      <c r="K65">
+        <v>0.051474034833963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.003835289764923196</v>
+        <v>0.01137572111640815</v>
       </c>
       <c r="C66">
-        <v>0.165534907357785</v>
+        <v>0.1622179482330751</v>
       </c>
       <c r="D66">
-        <v>0.02160245779115327</v>
+        <v>-0.04681998362318141</v>
       </c>
       <c r="E66">
-        <v>-0.06892452018205437</v>
+        <v>-0.0135212378827789</v>
       </c>
       <c r="F66">
-        <v>-0.02974967063848353</v>
+        <v>-0.01410909097891147</v>
       </c>
       <c r="G66">
-        <v>-0.08713603291674829</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02908643741500331</v>
+      </c>
+      <c r="H66">
+        <v>0.06126893703908616</v>
+      </c>
+      <c r="I66">
+        <v>-0.05389259272471335</v>
+      </c>
+      <c r="J66">
+        <v>0.01728187871054224</v>
+      </c>
+      <c r="K66">
+        <v>-0.02666000563990899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02908727340268155</v>
+        <v>0.02096733178007845</v>
       </c>
       <c r="C67">
-        <v>0.03595338577291676</v>
+        <v>0.05349024872650467</v>
       </c>
       <c r="D67">
-        <v>0.06110700501699636</v>
+        <v>-0.04306253454389566</v>
       </c>
       <c r="E67">
-        <v>0.03612413462491738</v>
+        <v>0.02930429983059779</v>
       </c>
       <c r="F67">
-        <v>-0.008546263926931748</v>
+        <v>0.0226567665529523</v>
       </c>
       <c r="G67">
-        <v>-0.02519193516752702</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02205786462178709</v>
+      </c>
+      <c r="H67">
+        <v>0.05866961184933125</v>
+      </c>
+      <c r="I67">
+        <v>0.05004370469366237</v>
+      </c>
+      <c r="J67">
+        <v>-0.05782269816582009</v>
+      </c>
+      <c r="K67">
+        <v>0.007522696500035852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2853351494122374</v>
+        <v>0.2943378254104118</v>
       </c>
       <c r="C68">
-        <v>-0.0375909966623618</v>
+        <v>-0.06428797304471469</v>
       </c>
       <c r="D68">
-        <v>-0.03400606748663646</v>
+        <v>0.02690532092100401</v>
       </c>
       <c r="E68">
-        <v>-0.01922615216596287</v>
+        <v>-0.009814172208731381</v>
       </c>
       <c r="F68">
-        <v>0.01037510130586812</v>
+        <v>-0.0255420159494584</v>
       </c>
       <c r="G68">
-        <v>0.02026390936610378</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02439469487531392</v>
+      </c>
+      <c r="H68">
+        <v>0.02285985766855563</v>
+      </c>
+      <c r="I68">
+        <v>0.03297894057539368</v>
+      </c>
+      <c r="J68">
+        <v>0.02054703955970123</v>
+      </c>
+      <c r="K68">
+        <v>-0.06840927828105513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.005334145344475389</v>
+        <v>0.005533137358948099</v>
       </c>
       <c r="C69">
-        <v>0.05764264214036192</v>
+        <v>0.05380213251812403</v>
       </c>
       <c r="D69">
-        <v>0.0455512535083683</v>
+        <v>-0.02421378557532386</v>
       </c>
       <c r="E69">
-        <v>0.01425203238253461</v>
+        <v>-0.002190340145566833</v>
       </c>
       <c r="F69">
-        <v>-0.002734801734512262</v>
+        <v>0.01252159721745139</v>
       </c>
       <c r="G69">
-        <v>-0.02038504989056971</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02574619829951108</v>
+      </c>
+      <c r="H69">
+        <v>0.04678046469254382</v>
+      </c>
+      <c r="I69">
+        <v>0.01411075071572942</v>
+      </c>
+      <c r="J69">
+        <v>-0.007570446105645152</v>
+      </c>
+      <c r="K69">
+        <v>-0.008507610793964261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2833810048870706</v>
+        <v>0.2786330420258734</v>
       </c>
       <c r="C71">
-        <v>-0.05159885611935338</v>
+        <v>-0.07381186421191956</v>
       </c>
       <c r="D71">
-        <v>-0.03831708023698723</v>
+        <v>0.02468501649549809</v>
       </c>
       <c r="E71">
-        <v>-0.03155268277621986</v>
+        <v>0.01443104486961168</v>
       </c>
       <c r="F71">
-        <v>-0.02829037481204558</v>
+        <v>-0.0622286675144776</v>
       </c>
       <c r="G71">
-        <v>0.008097650854450139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01771407329880323</v>
+      </c>
+      <c r="H71">
+        <v>0.05605576717658433</v>
+      </c>
+      <c r="I71">
+        <v>0.1251938868294967</v>
+      </c>
+      <c r="J71">
+        <v>0.04749991475308061</v>
+      </c>
+      <c r="K71">
+        <v>-0.04773843773976474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.03717248897170406</v>
+        <v>0.05450331981712676</v>
       </c>
       <c r="C72">
-        <v>0.1566878654689024</v>
+        <v>0.1408162868070682</v>
       </c>
       <c r="D72">
-        <v>0.06814578231311474</v>
+        <v>-0.04455197225412427</v>
       </c>
       <c r="E72">
-        <v>-0.0414210925699765</v>
+        <v>0.004285028040188482</v>
       </c>
       <c r="F72">
-        <v>-0.09885109862022588</v>
+        <v>0.02685536192828086</v>
       </c>
       <c r="G72">
-        <v>-0.08309624911625965</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02967835406561914</v>
+      </c>
+      <c r="H72">
+        <v>0.02508019120102365</v>
+      </c>
+      <c r="I72">
+        <v>-0.1243423713375034</v>
+      </c>
+      <c r="J72">
+        <v>0.04610734965229493</v>
+      </c>
+      <c r="K72">
+        <v>0.02966353490800771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0717865488759329</v>
+        <v>0.1468622370318993</v>
       </c>
       <c r="C73">
-        <v>0.1299871304395355</v>
+        <v>0.1969772528259315</v>
       </c>
       <c r="D73">
-        <v>0.1074597959688692</v>
+        <v>-0.08113742752523598</v>
       </c>
       <c r="E73">
-        <v>0.128172135070373</v>
+        <v>0.007125590245862422</v>
       </c>
       <c r="F73">
-        <v>-0.08272386115519999</v>
+        <v>0.2476513225832537</v>
       </c>
       <c r="G73">
-        <v>-0.3996263489920453</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3765772851614712</v>
+      </c>
+      <c r="H73">
+        <v>-0.3136110722773741</v>
+      </c>
+      <c r="I73">
+        <v>0.07858198552851672</v>
+      </c>
+      <c r="J73">
+        <v>0.06343011054109089</v>
+      </c>
+      <c r="K73">
+        <v>0.08581071905674818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01540689321364943</v>
+        <v>0.0374609105010129</v>
       </c>
       <c r="C74">
-        <v>0.104272765573418</v>
+        <v>0.1069209368821584</v>
       </c>
       <c r="D74">
-        <v>0.07342741042862819</v>
+        <v>-0.04852433370255245</v>
       </c>
       <c r="E74">
-        <v>0.0858085647187896</v>
+        <v>0.003892606676099061</v>
       </c>
       <c r="F74">
-        <v>0.04475109704477503</v>
+        <v>0.05508207899897151</v>
       </c>
       <c r="G74">
-        <v>0.009096171789267039</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05633961944574626</v>
+      </c>
+      <c r="H74">
+        <v>-0.004511926625986219</v>
+      </c>
+      <c r="I74">
+        <v>-0.008045510667450169</v>
+      </c>
+      <c r="J74">
+        <v>0.03293713027676286</v>
+      </c>
+      <c r="K74">
+        <v>-0.05244485340648785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.05305922959127265</v>
+        <v>0.05938514930440961</v>
       </c>
       <c r="C75">
-        <v>0.15229710337964</v>
+        <v>0.1690964512799841</v>
       </c>
       <c r="D75">
-        <v>0.09789330142776458</v>
+        <v>-0.08667617064286114</v>
       </c>
       <c r="E75">
-        <v>0.2153873784197463</v>
+        <v>0.05573193104780236</v>
       </c>
       <c r="F75">
-        <v>0.07286967356820249</v>
+        <v>0.1201415836063999</v>
       </c>
       <c r="G75">
-        <v>0.1402680310984467</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2295949925341947</v>
+      </c>
+      <c r="H75">
+        <v>-0.02721079413000375</v>
+      </c>
+      <c r="I75">
+        <v>0.1311865896159468</v>
+      </c>
+      <c r="J75">
+        <v>-0.05083118801582542</v>
+      </c>
+      <c r="K75">
+        <v>-0.08260371390489016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.02508078773818597</v>
+        <v>0.04053534837942477</v>
       </c>
       <c r="C76">
-        <v>0.1150878613556949</v>
+        <v>0.1249630644081801</v>
       </c>
       <c r="D76">
-        <v>0.06644885830976673</v>
+        <v>-0.07429033339579413</v>
       </c>
       <c r="E76">
-        <v>0.1078166119614625</v>
+        <v>0.007889760215247942</v>
       </c>
       <c r="F76">
-        <v>0.05776959080936587</v>
+        <v>0.08660846223845509</v>
       </c>
       <c r="G76">
-        <v>-0.002896061286410721</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08249957733942341</v>
+      </c>
+      <c r="H76">
+        <v>-0.01069956283732585</v>
+      </c>
+      <c r="I76">
+        <v>0.004115175785719135</v>
+      </c>
+      <c r="J76">
+        <v>-0.01963537659709841</v>
+      </c>
+      <c r="K76">
+        <v>-0.1018658287626899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.06259587347826516</v>
+        <v>0.04427702118196496</v>
       </c>
       <c r="C77">
-        <v>0.3269750804660838</v>
+        <v>0.3962630485193735</v>
       </c>
       <c r="D77">
-        <v>-0.841981432501598</v>
+        <v>0.9011469924190911</v>
       </c>
       <c r="E77">
-        <v>0.3216845463531687</v>
+        <v>0.05107110234666104</v>
       </c>
       <c r="F77">
-        <v>-0.07663063104745498</v>
+        <v>0.08050075528502394</v>
       </c>
       <c r="G77">
-        <v>-0.05205637749503386</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03108652712554351</v>
+      </c>
+      <c r="H77">
+        <v>0.05987226530796976</v>
+      </c>
+      <c r="I77">
+        <v>0.002698856053512193</v>
+      </c>
+      <c r="J77">
+        <v>0.003336265204263296</v>
+      </c>
+      <c r="K77">
+        <v>-0.02536371426104992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.03241557360968027</v>
+        <v>0.03240309011954923</v>
       </c>
       <c r="C78">
-        <v>0.1478851813787317</v>
+        <v>0.1126704054045606</v>
       </c>
       <c r="D78">
-        <v>0.1000400187733282</v>
+        <v>-0.09785074227738717</v>
       </c>
       <c r="E78">
-        <v>-0.07180243074085402</v>
+        <v>-0.04731937678787402</v>
       </c>
       <c r="F78">
-        <v>0.1086617968873774</v>
+        <v>-0.005917075468646919</v>
       </c>
       <c r="G78">
-        <v>0.0116408594221982</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1085758500798351</v>
+      </c>
+      <c r="H78">
+        <v>0.06000905948139963</v>
+      </c>
+      <c r="I78">
+        <v>-0.07759545867214715</v>
+      </c>
+      <c r="J78">
+        <v>0.399503423558084</v>
+      </c>
+      <c r="K78">
+        <v>0.06943678910138583</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02859609743946016</v>
+        <v>0.0530277144647161</v>
       </c>
       <c r="C79">
-        <v>0.1849927554783375</v>
+        <v>0.1447330156498629</v>
       </c>
       <c r="D79">
-        <v>0.1252477016520079</v>
+        <v>-0.06889296066103073</v>
       </c>
       <c r="E79">
-        <v>0.1500214881791707</v>
+        <v>-0.01378921541411188</v>
       </c>
       <c r="F79">
-        <v>0.1417837647686385</v>
+        <v>0.07753489737563998</v>
       </c>
       <c r="G79">
-        <v>0.1218916955297359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2373837967315842</v>
+      </c>
+      <c r="H79">
+        <v>0.002834887311456443</v>
+      </c>
+      <c r="I79">
+        <v>0.07221309390565919</v>
+      </c>
+      <c r="J79">
+        <v>0.08207386901199312</v>
+      </c>
+      <c r="K79">
+        <v>-0.03713390815238351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01239749795417403</v>
+        <v>0.01979207696453821</v>
       </c>
       <c r="C80">
-        <v>0.04043336728681986</v>
+        <v>0.05149365890422922</v>
       </c>
       <c r="D80">
-        <v>0.04933132738197397</v>
+        <v>-0.04029878090676915</v>
       </c>
       <c r="E80">
-        <v>0.008338247341395122</v>
+        <v>-0.04952632513547318</v>
       </c>
       <c r="F80">
-        <v>0.0272576509798871</v>
+        <v>-0.02003852370051856</v>
       </c>
       <c r="G80">
-        <v>-0.001224222132317082</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0537875805158305</v>
+      </c>
+      <c r="H80">
+        <v>-0.03306048032687846</v>
+      </c>
+      <c r="I80">
+        <v>0.04642311945738783</v>
+      </c>
+      <c r="J80">
+        <v>-0.07590532415976292</v>
+      </c>
+      <c r="K80">
+        <v>-0.02151883531651256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.008257195754851799</v>
+        <v>0.01472879356914443</v>
       </c>
       <c r="C81">
-        <v>0.08760047583976023</v>
+        <v>0.1006530335607112</v>
       </c>
       <c r="D81">
-        <v>0.08370188949278706</v>
+        <v>-0.05539021202569175</v>
       </c>
       <c r="E81">
-        <v>0.1184109489037045</v>
+        <v>-0.0079118659939236</v>
       </c>
       <c r="F81">
-        <v>0.07062376131406167</v>
+        <v>0.05090211264945228</v>
       </c>
       <c r="G81">
-        <v>0.02851107217610176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1118802695745078</v>
+      </c>
+      <c r="H81">
+        <v>0.04534336793038787</v>
+      </c>
+      <c r="I81">
+        <v>0.05465568036728959</v>
+      </c>
+      <c r="J81">
+        <v>-0.01566581254269933</v>
+      </c>
+      <c r="K81">
+        <v>-0.07250870097299528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.03036116365495541</v>
+        <v>0.0456889868489658</v>
       </c>
       <c r="C82">
-        <v>0.09514029721659488</v>
+        <v>0.1070972224632655</v>
       </c>
       <c r="D82">
-        <v>0.07941986826487511</v>
+        <v>-0.0674125432367379</v>
       </c>
       <c r="E82">
-        <v>0.1199900058898903</v>
+        <v>-0.0001300892408723765</v>
       </c>
       <c r="F82">
-        <v>0.04044101758678906</v>
+        <v>0.07444727935732912</v>
       </c>
       <c r="G82">
-        <v>0.001035558940522238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09523967949031216</v>
+      </c>
+      <c r="H82">
+        <v>0.009777132294268319</v>
+      </c>
+      <c r="I82">
+        <v>0.02211916976543301</v>
+      </c>
+      <c r="J82">
+        <v>-0.003386712294591401</v>
+      </c>
+      <c r="K82">
+        <v>-0.0719423566637766</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004615405518767102</v>
+        <v>0.000175323897969378</v>
       </c>
       <c r="C83">
-        <v>0.05303296569174647</v>
+        <v>0.003475592758658381</v>
       </c>
       <c r="D83">
-        <v>-0.189976013503939</v>
+        <v>0.0626903709489752</v>
       </c>
       <c r="E83">
-        <v>-0.2903136672243102</v>
+        <v>-0.9620595151150719</v>
       </c>
       <c r="F83">
-        <v>0.8494425562920432</v>
+        <v>-0.00383174881731031</v>
       </c>
       <c r="G83">
-        <v>-0.2042528544692116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04255726121537837</v>
+      </c>
+      <c r="H83">
+        <v>-0.09067598351213368</v>
+      </c>
+      <c r="I83">
+        <v>-0.06118292231128304</v>
+      </c>
+      <c r="J83">
+        <v>0.01527670728643571</v>
+      </c>
+      <c r="K83">
+        <v>-0.06734175673066117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.002458471556453882</v>
+        <v>-0.0006667670909938475</v>
       </c>
       <c r="C84">
-        <v>0.05384068850677816</v>
+        <v>0.04466638514653012</v>
       </c>
       <c r="D84">
-        <v>0.03220912529991978</v>
+        <v>-0.06311251273390586</v>
       </c>
       <c r="E84">
-        <v>-0.0998488587542084</v>
+        <v>0.01592101513968613</v>
       </c>
       <c r="F84">
-        <v>-0.07406436363889714</v>
+        <v>-0.1025109902211714</v>
       </c>
       <c r="G84">
-        <v>0.1074675283571906</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03295605931280238</v>
+      </c>
+      <c r="H84">
+        <v>0.07319721288578578</v>
+      </c>
+      <c r="I84">
+        <v>-0.1186171488929418</v>
+      </c>
+      <c r="J84">
+        <v>-0.0386190618635806</v>
+      </c>
+      <c r="K84">
+        <v>-0.08428200078011476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.02012446350369327</v>
+        <v>0.02806666597538789</v>
       </c>
       <c r="C85">
-        <v>0.130098825667516</v>
+        <v>0.1140152637395008</v>
       </c>
       <c r="D85">
-        <v>0.09141803746732692</v>
+        <v>-0.07998377193180478</v>
       </c>
       <c r="E85">
-        <v>0.1468981170195398</v>
+        <v>0.004841248124247351</v>
       </c>
       <c r="F85">
-        <v>0.09658405130299398</v>
+        <v>0.1299479120851936</v>
       </c>
       <c r="G85">
-        <v>0.07907367757402357</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2012691098130835</v>
+      </c>
+      <c r="H85">
+        <v>-0.02450467857936967</v>
+      </c>
+      <c r="I85">
+        <v>0.08288341791925682</v>
+      </c>
+      <c r="J85">
+        <v>-0.001873749868448707</v>
+      </c>
+      <c r="K85">
+        <v>-0.1846725448516856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01965608497521788</v>
+        <v>0.01513239697489351</v>
       </c>
       <c r="C86">
-        <v>0.0714853564012046</v>
+        <v>0.08252123753147433</v>
       </c>
       <c r="D86">
-        <v>-0.03038252967755153</v>
+        <v>-0.02664957483733948</v>
       </c>
       <c r="E86">
-        <v>-0.04674703328467045</v>
+        <v>-0.006113902302665624</v>
       </c>
       <c r="F86">
-        <v>-0.06891349631826135</v>
+        <v>-0.09180564958593956</v>
       </c>
       <c r="G86">
-        <v>-0.0161976404458632</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04521401596259701</v>
+      </c>
+      <c r="H86">
+        <v>0.02075561377751869</v>
+      </c>
+      <c r="I86">
+        <v>0.1340711164421455</v>
+      </c>
+      <c r="J86">
+        <v>0.1413389539005549</v>
+      </c>
+      <c r="K86">
+        <v>0.1452612247496742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.03571784477971514</v>
+        <v>0.02301860056109751</v>
       </c>
       <c r="C87">
-        <v>0.1506780869189993</v>
+        <v>0.1163305881290219</v>
       </c>
       <c r="D87">
-        <v>0.0186404803040856</v>
+        <v>-0.01743021228891572</v>
       </c>
       <c r="E87">
-        <v>-0.118994338514273</v>
+        <v>-0.0003077607486859858</v>
       </c>
       <c r="F87">
-        <v>0.002900047356593819</v>
+        <v>-0.07307149888970216</v>
       </c>
       <c r="G87">
-        <v>0.03804196286610511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.007661360541262556</v>
+      </c>
+      <c r="H87">
+        <v>0.03657392219441013</v>
+      </c>
+      <c r="I87">
+        <v>-0.09416609331319473</v>
+      </c>
+      <c r="J87">
+        <v>0.08115645392028367</v>
+      </c>
+      <c r="K87">
+        <v>-0.09219352465368448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.0009958889512209229</v>
+        <v>0.03496149235637022</v>
       </c>
       <c r="C88">
-        <v>0.03625976363212288</v>
+        <v>0.06440761879204251</v>
       </c>
       <c r="D88">
-        <v>0.0465275933729241</v>
+        <v>-0.04284529375576697</v>
       </c>
       <c r="E88">
-        <v>0.05641571473630575</v>
+        <v>0.01533799335609507</v>
       </c>
       <c r="F88">
-        <v>-0.0196002351139461</v>
+        <v>0.02134934286362333</v>
       </c>
       <c r="G88">
-        <v>-0.006829915637701678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02230209489249118</v>
+      </c>
+      <c r="H88">
+        <v>0.0004936463568679549</v>
+      </c>
+      <c r="I88">
+        <v>0.02335185969074444</v>
+      </c>
+      <c r="J88">
+        <v>-0.07320843079150489</v>
+      </c>
+      <c r="K88">
+        <v>-0.04384600232224273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3901333468168379</v>
+        <v>0.3909045786486464</v>
       </c>
       <c r="C89">
-        <v>-0.08048991180707085</v>
+        <v>-0.1048714542496518</v>
       </c>
       <c r="D89">
-        <v>0.1021273303340333</v>
+        <v>0.03287746981041464</v>
       </c>
       <c r="E89">
-        <v>-0.07280425101261344</v>
+        <v>0.02862889031038071</v>
       </c>
       <c r="F89">
-        <v>0.04894243494937139</v>
+        <v>-0.05023094840987461</v>
       </c>
       <c r="G89">
-        <v>0.08558048253399607</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01779994055337413</v>
+      </c>
+      <c r="H89">
+        <v>-0.01368754435152886</v>
+      </c>
+      <c r="I89">
+        <v>-0.7520812560589757</v>
+      </c>
+      <c r="J89">
+        <v>-0.05971901429565438</v>
+      </c>
+      <c r="K89">
+        <v>0.07870258051077948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.2999134850385254</v>
+        <v>0.3131480048849173</v>
       </c>
       <c r="C90">
-        <v>-0.02632551619329301</v>
+        <v>-0.06781775850213781</v>
       </c>
       <c r="D90">
-        <v>-0.01555836536690711</v>
+        <v>0.01546114673243308</v>
       </c>
       <c r="E90">
-        <v>-0.05708582504215493</v>
+        <v>-0.02226437479986098</v>
       </c>
       <c r="F90">
-        <v>0.05363581117128959</v>
+        <v>-0.0309057088507876</v>
       </c>
       <c r="G90">
-        <v>-0.02860068682138296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01750835828835628</v>
+      </c>
+      <c r="H90">
+        <v>0.01537839819338245</v>
+      </c>
+      <c r="I90">
+        <v>0.07717027077318238</v>
+      </c>
+      <c r="J90">
+        <v>0.02059958912323202</v>
+      </c>
+      <c r="K90">
+        <v>-0.00512083998642874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02970471187094166</v>
+        <v>0.0511482729145625</v>
       </c>
       <c r="C91">
-        <v>0.09248766514338932</v>
+        <v>0.0907586638290271</v>
       </c>
       <c r="D91">
-        <v>0.04951699988886283</v>
+        <v>-0.04558610750077466</v>
       </c>
       <c r="E91">
-        <v>0.08279251405162065</v>
+        <v>-0.02724909941024671</v>
       </c>
       <c r="F91">
-        <v>0.06827118332171098</v>
+        <v>0.06083638173992453</v>
       </c>
       <c r="G91">
-        <v>0.0332767337057709</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08004592122120166</v>
+      </c>
+      <c r="H91">
+        <v>-0.02363932802969101</v>
+      </c>
+      <c r="I91">
+        <v>0.003188717975918467</v>
+      </c>
+      <c r="J91">
+        <v>-0.04007739635104527</v>
+      </c>
+      <c r="K91">
+        <v>-0.02450686036604425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3829845928196289</v>
+        <v>0.3567292731868886</v>
       </c>
       <c r="C92">
-        <v>-0.09233569089245899</v>
+        <v>-0.1191067175058248</v>
       </c>
       <c r="D92">
-        <v>-0.02057893511152903</v>
+        <v>0.05347346893144005</v>
       </c>
       <c r="E92">
-        <v>-0.01324177975269375</v>
+        <v>0.04203188255579787</v>
       </c>
       <c r="F92">
-        <v>-0.1011490874191391</v>
+        <v>-0.06558013486050665</v>
       </c>
       <c r="G92">
-        <v>0.04911190201917377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.001550715338112508</v>
+      </c>
+      <c r="H92">
+        <v>0.07709302195257657</v>
+      </c>
+      <c r="I92">
+        <v>0.151880913775446</v>
+      </c>
+      <c r="J92">
+        <v>0.01153254031391846</v>
+      </c>
+      <c r="K92">
+        <v>0.02950213651301234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.301256815815914</v>
+        <v>0.3118370262919385</v>
       </c>
       <c r="C93">
-        <v>-0.07781811924128729</v>
+        <v>-0.1096248474826169</v>
       </c>
       <c r="D93">
-        <v>0.01655435002969147</v>
+        <v>0.006899751293583896</v>
       </c>
       <c r="E93">
-        <v>-0.05971324034412115</v>
+        <v>-0.004905156642096313</v>
       </c>
       <c r="F93">
-        <v>0.004817574765315297</v>
+        <v>-0.04101926219469604</v>
       </c>
       <c r="G93">
-        <v>0.03182481480422254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0401097260302947</v>
+      </c>
+      <c r="H93">
+        <v>0.03759203925512991</v>
+      </c>
+      <c r="I93">
+        <v>0.1041640687497204</v>
+      </c>
+      <c r="J93">
+        <v>0.01195724517866875</v>
+      </c>
+      <c r="K93">
+        <v>-0.01808352685476189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.05137616355568545</v>
+        <v>0.07658353184616322</v>
       </c>
       <c r="C94">
-        <v>0.2138908448836961</v>
+        <v>0.1717266050382095</v>
       </c>
       <c r="D94">
-        <v>0.1718635464014426</v>
+        <v>-0.1062927044666602</v>
       </c>
       <c r="E94">
-        <v>0.3236668327914839</v>
+        <v>0.0002443549885680636</v>
       </c>
       <c r="F94">
-        <v>0.2421191613427058</v>
+        <v>0.172034503186353</v>
       </c>
       <c r="G94">
-        <v>0.4780818694295011</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5437226781366035</v>
+      </c>
+      <c r="H94">
+        <v>-0.1943303977587766</v>
+      </c>
+      <c r="I94">
+        <v>-0.111112495417062</v>
+      </c>
+      <c r="J94">
+        <v>-0.270661903767692</v>
+      </c>
+      <c r="K94">
+        <v>0.3045317041775187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.03727909786609394</v>
+        <v>0.0366345526869176</v>
       </c>
       <c r="C95">
-        <v>0.09862666200062999</v>
+        <v>0.1284648276863385</v>
       </c>
       <c r="D95">
-        <v>0.03856174175202188</v>
+        <v>-0.06135151269492072</v>
       </c>
       <c r="E95">
-        <v>0.04872509245547538</v>
+        <v>0.04002999397069854</v>
       </c>
       <c r="F95">
-        <v>0.02197413565021583</v>
+        <v>0.07273145537194135</v>
       </c>
       <c r="G95">
-        <v>-0.1419041336703083</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0499720197975702</v>
+      </c>
+      <c r="H95">
+        <v>0.07197088669222176</v>
+      </c>
+      <c r="I95">
+        <v>-0.1206641512011906</v>
+      </c>
+      <c r="J95">
+        <v>-0.2053901518082775</v>
+      </c>
+      <c r="K95">
+        <v>-0.3037705459639267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0002333649285320202</v>
+        <v>0.01114347374675199</v>
       </c>
       <c r="C97">
-        <v>1.241927067248379e-05</v>
+        <v>0.01615662164987382</v>
       </c>
       <c r="D97">
-        <v>-4.281602203033831e-05</v>
+        <v>0.009339467225732133</v>
       </c>
       <c r="E97">
-        <v>0.0006023553015401507</v>
+        <v>0.03199149004338345</v>
       </c>
       <c r="F97">
-        <v>-0.0006147879997033001</v>
+        <v>-0.01226904582330738</v>
       </c>
       <c r="G97">
-        <v>0.0007541885994171652</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03103624433318157</v>
+      </c>
+      <c r="H97">
+        <v>0.03537225482285822</v>
+      </c>
+      <c r="I97">
+        <v>-0.02159676365383996</v>
+      </c>
+      <c r="J97">
+        <v>-0.03715087816103283</v>
+      </c>
+      <c r="K97">
+        <v>0.1128759690533502</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08894842348685315</v>
+        <v>0.1281757223316773</v>
       </c>
       <c r="C98">
-        <v>0.1461700465086151</v>
+        <v>0.1597429469534131</v>
       </c>
       <c r="D98">
-        <v>0.1048752083998106</v>
+        <v>-0.08777112422734307</v>
       </c>
       <c r="E98">
-        <v>0.06694727316128742</v>
+        <v>0.004315669036314999</v>
       </c>
       <c r="F98">
-        <v>-0.06160986051173623</v>
+        <v>0.2114001468366801</v>
       </c>
       <c r="G98">
-        <v>-0.2708856797710733</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.326429924688991</v>
+      </c>
+      <c r="H98">
+        <v>-0.3445311712049681</v>
+      </c>
+      <c r="I98">
+        <v>0.09640468563414756</v>
+      </c>
+      <c r="J98">
+        <v>0.08366885204633072</v>
+      </c>
+      <c r="K98">
+        <v>0.1422559196165283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01025301563847849</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.03586645072298345</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.004731158468786394</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.005448937815436445</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.02745587176999541</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.02679775915314702</v>
+      </c>
+      <c r="H99">
+        <v>0.1117807950530622</v>
+      </c>
+      <c r="I99">
+        <v>0.02046674324901238</v>
+      </c>
+      <c r="J99">
+        <v>-0.1679304765209756</v>
+      </c>
+      <c r="K99">
+        <v>0.6824561443706378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.008516436287304235</v>
+        <v>0.01307612443983132</v>
       </c>
       <c r="C101">
-        <v>0.07035138125328536</v>
+        <v>0.07881194308907383</v>
       </c>
       <c r="D101">
-        <v>0.04229679483867863</v>
+        <v>-0.05352862559528633</v>
       </c>
       <c r="E101">
-        <v>-0.05321972483713375</v>
+        <v>-0.05181532896826523</v>
       </c>
       <c r="F101">
-        <v>-0.01519625205753883</v>
+        <v>-0.004735959156514282</v>
       </c>
       <c r="G101">
-        <v>-0.09423890366270617</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1277058181548185</v>
+      </c>
+      <c r="H101">
+        <v>0.2880783444197727</v>
+      </c>
+      <c r="I101">
+        <v>-0.03518039451355531</v>
+      </c>
+      <c r="J101">
+        <v>-0.1748267255661519</v>
+      </c>
+      <c r="K101">
+        <v>0.07288589696536292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.008532941978881827</v>
+        <v>0.003368494112009273</v>
       </c>
       <c r="C102">
-        <v>0.03329373614118181</v>
+        <v>0.01293291815891319</v>
       </c>
       <c r="D102">
-        <v>0.01109631468771156</v>
+        <v>-0.001959455229280156</v>
       </c>
       <c r="E102">
-        <v>0.02831520970334582</v>
+        <v>-0.006562118733352512</v>
       </c>
       <c r="F102">
-        <v>0.02729125439268788</v>
+        <v>0.009479980807949222</v>
       </c>
       <c r="G102">
-        <v>-0.004887446530240011</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.00937514382339899</v>
+      </c>
+      <c r="H102">
+        <v>0.001529815699811728</v>
+      </c>
+      <c r="I102">
+        <v>-0.01947859143790618</v>
+      </c>
+      <c r="J102">
+        <v>-0.001553514865884953</v>
+      </c>
+      <c r="K102">
+        <v>0.01609729652909936</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
